--- a/PlantillaIngresoDatos-GeneradorSQL.xlsx
+++ b/PlantillaIngresoDatos-GeneradorSQL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miller.bautista\Downloads\Generador de código\Back\GeneradorCódigoSQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miller.bautista\Documents\GeneradorCódigo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6A749A-7088-4752-81C6-5B050970FD7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF05C2DA-40AD-40DC-86C9-3FCEBDC05195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLANTILLA" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +172,12 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -307,6 +313,60 @@
   </cellStyles>
   <dxfs count="20">
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -332,19 +392,11 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0">
@@ -353,12 +405,182 @@
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
         <vertical/>
         <horizontal/>
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -367,19 +589,27 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
@@ -410,230 +640,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -648,29 +654,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{28E20476-A756-49BF-BCA4-62779AA2190F}" name="Tabla1" displayName="Tabla1" ref="B1:K12" totalsRowShown="0" headerRowDxfId="6" dataDxfId="7" headerRowBorderDxfId="18" tableBorderDxfId="19" totalsRowBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{28E20476-A756-49BF-BCA4-62779AA2190F}" name="Tabla1" displayName="Tabla1" ref="B1:K12" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
   <autoFilter ref="B1:K12" xr:uid="{28E20476-A756-49BF-BCA4-62779AA2190F}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{63239615-CFE8-4537-A86B-CEF82BFB50EE}" name="COLUMNAS"/>
-    <tableColumn id="2" xr3:uid="{D4DA13FF-8679-47D8-8984-262F22B63CA5}" name="," dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{C9CA4166-DAB4-4EE3-A43D-F1ABBCDD405F}" name="TIPO" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{D856B43B-125E-420E-97A0-AA2B9956BC2B}" name=",   " dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{8368C40C-A3C0-4B11-8A2B-C46ECEFEE6A2}" name="CANT_CARACTERES" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{42047832-2D06-4462-8452-684C97EA1F0A}" name=",  " dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{857A3A44-1213-4116-88CA-590998AE7F7A}" name="NULLABLE" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{A28BB0B9-AADD-42CF-B480-15F8DE3F1183}" name=", " dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{900FFDFD-F547-4BE1-8CDF-0F286A6C50E8}" name="COMENTARIOS" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{8309C52E-9D00-4FF1-97ED-C39A1F86DE19}" name=";" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{D4DA13FF-8679-47D8-8984-262F22B63CA5}" name="," dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{C9CA4166-DAB4-4EE3-A43D-F1ABBCDD405F}" name="TIPO" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{D856B43B-125E-420E-97A0-AA2B9956BC2B}" name=",   " dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{8368C40C-A3C0-4B11-8A2B-C46ECEFEE6A2}" name="CANT_CARACTERES" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{42047832-2D06-4462-8452-684C97EA1F0A}" name=",  " dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{857A3A44-1213-4116-88CA-590998AE7F7A}" name="NULLABLE" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{A28BB0B9-AADD-42CF-B480-15F8DE3F1183}" name=", " dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{900FFDFD-F547-4BE1-8CDF-0F286A6C50E8}" name="COMENTARIOS" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{8309C52E-9D00-4FF1-97ED-C39A1F86DE19}" name=";" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B13F7F5F-8A12-40F4-BDF5-EA9DE12DA135}" name="Tabla2" displayName="Tabla2" ref="N1:N2" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B13F7F5F-8A12-40F4-BDF5-EA9DE12DA135}" name="Tabla2" displayName="Tabla2" ref="N1:N2" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" headerRowBorderDxfId="2" tableBorderDxfId="3" totalsRowBorderDxfId="1">
   <autoFilter ref="N1:N2" xr:uid="{B13F7F5F-8A12-40F4-BDF5-EA9DE12DA135}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{7CB97D90-6DB1-4A56-BC0C-E2648DE5F3F6}" name="NOMBRE TABLA" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{7CB97D90-6DB1-4A56-BC0C-E2648DE5F3F6}" name="NOMBRE TABLA" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -942,7 +948,7 @@
   <dimension ref="B1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1330,6 +1336,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
